--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Data_inserimento_entry_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Data_inserimento_entry_of.xlsx
@@ -685,7 +685,7 @@
         <v>13000001</v>
       </c>
       <c r="C17" t="n">
-        <v>14000077</v>
+        <v>14000076</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>43838</v>
@@ -1008,7 +1008,7 @@
         <v>13000032</v>
       </c>
       <c r="C34" t="n">
-        <v>14000053</v>
+        <v>14000052</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>43412</v>
@@ -1049,7 +1049,7 @@
         <v>14000034</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43804</v>
+        <v>43844</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>14000034</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43844</v>
+        <v>43804</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>14000034</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43845</v>
+        <v>43774</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1100,13 +1100,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13000037</v>
+        <v>13000038</v>
       </c>
       <c r="C39" t="n">
         <v>14000034</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43774</v>
+        <v>43845</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13000040</v>
+        <v>13000039</v>
       </c>
       <c r="C40" t="n">
-        <v>14000040</v>
+        <v>14000039</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>43656</v>
@@ -1138,10 +1138,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13000040</v>
+        <v>13000039</v>
       </c>
       <c r="C41" t="n">
-        <v>14000041</v>
+        <v>14000040</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>43656</v>
@@ -1157,10 +1157,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13000040</v>
+        <v>13000039</v>
       </c>
       <c r="C42" t="n">
-        <v>14000042</v>
+        <v>14000041</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>43656</v>
@@ -1176,10 +1176,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13000040</v>
+        <v>13000039</v>
       </c>
       <c r="C43" t="n">
-        <v>14000044</v>
+        <v>14000043</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>43656</v>
@@ -1195,17 +1195,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13000045</v>
+        <v>13000040</v>
       </c>
       <c r="C44" t="n">
-        <v>14000045</v>
+        <v>14000057</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>43657</v>
+        <v>43767</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>ITCH00016</t>
         </is>
       </c>
     </row>
@@ -1214,17 +1214,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13000045</v>
+        <v>13000040</v>
       </c>
       <c r="C45" t="n">
-        <v>14000046</v>
+        <v>14000058</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>43657</v>
+        <v>43767</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>ITCH00017</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13000047</v>
+        <v>13000040</v>
       </c>
       <c r="C46" t="n">
-        <v>14000047</v>
+        <v>14000059</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>ITCH00018</t>
         </is>
       </c>
     </row>
@@ -1252,17 +1252,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13000048</v>
+        <v>13000040</v>
       </c>
       <c r="C47" t="n">
-        <v>14000048</v>
+        <v>14000060</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>ITCH00019</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13000048</v>
+        <v>13000040</v>
       </c>
       <c r="C48" t="n">
-        <v>14000050</v>
+        <v>14000061</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>ITCH00020</t>
         </is>
       </c>
     </row>
@@ -1290,17 +1290,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13000048</v>
+        <v>13000040</v>
       </c>
       <c r="C49" t="n">
-        <v>14000052</v>
+        <v>14000063</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>ITCH00022</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1309,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13000048</v>
+        <v>13000040</v>
       </c>
       <c r="C50" t="n">
-        <v>14000055</v>
+        <v>14000064</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>ITCH00023</t>
         </is>
       </c>
     </row>
@@ -1328,17 +1328,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13000048</v>
+        <v>13000040</v>
       </c>
       <c r="C51" t="n">
-        <v>14000056</v>
+        <v>14000065</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>ITCH00024</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13000048</v>
+        <v>13000040</v>
       </c>
       <c r="C52" t="n">
-        <v>14000057</v>
+        <v>14000071</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>ITCH00028</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13000048</v>
+        <v>13000044</v>
       </c>
       <c r="C53" t="n">
-        <v>14000063</v>
+        <v>14000044</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>43766</v>
+        <v>43657</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>ITCH00005</t>
         </is>
       </c>
     </row>
@@ -1385,17 +1385,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13000048</v>
+        <v>13000044</v>
       </c>
       <c r="C54" t="n">
-        <v>14000075</v>
+        <v>14000045</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>43766</v>
+        <v>43657</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ITCH00030</t>
+          <t>ITCH00006</t>
         </is>
       </c>
     </row>
@@ -1404,17 +1404,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13000058</v>
+        <v>13000046</v>
       </c>
       <c r="C55" t="n">
-        <v>14000058</v>
+        <v>14000046</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43767</v>
+        <v>43731</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>ITCH00007</t>
         </is>
       </c>
     </row>
@@ -1423,17 +1423,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C56" t="n">
-        <v>14000059</v>
+        <v>14000047</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>ITCH00009</t>
         </is>
       </c>
     </row>
@@ -1442,17 +1442,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C57" t="n">
-        <v>14000060</v>
+        <v>14000049</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>ITCH00010</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C58" t="n">
-        <v>14000061</v>
+        <v>14000051</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>ITCH00011</t>
         </is>
       </c>
     </row>
@@ -1480,17 +1480,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C59" t="n">
-        <v>14000062</v>
+        <v>14000054</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>ITCH00013</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1499,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C60" t="n">
-        <v>14000064</v>
+        <v>14000055</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>ITCH00014</t>
         </is>
       </c>
     </row>
@@ -1518,17 +1518,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C61" t="n">
-        <v>14000065</v>
+        <v>14000056</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>ITCH00015</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1537,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C62" t="n">
-        <v>14000066</v>
+        <v>14000062</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>ITCH00021</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13000058</v>
+        <v>13000047</v>
       </c>
       <c r="C63" t="n">
-        <v>14000072</v>
+        <v>14000074</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>ITCH00030</t>
         </is>
       </c>
     </row>
@@ -1575,10 +1575,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13000067</v>
+        <v>13000066</v>
       </c>
       <c r="C64" t="n">
-        <v>14000067</v>
+        <v>14000066</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>43815</v>
@@ -1594,10 +1594,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13000069</v>
+        <v>13000068</v>
       </c>
       <c r="C65" t="n">
-        <v>14000069</v>
+        <v>14000068</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>43817</v>
@@ -1613,10 +1613,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13000069</v>
+        <v>13000068</v>
       </c>
       <c r="C66" t="n">
-        <v>14000074</v>
+        <v>14000073</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>43817</v>
@@ -1632,10 +1632,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13000069</v>
+        <v>13000068</v>
       </c>
       <c r="C67" t="n">
-        <v>14000076</v>
+        <v>14000075</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>43817</v>
@@ -1651,10 +1651,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13000070</v>
+        <v>13000069</v>
       </c>
       <c r="C68" t="n">
-        <v>14000070</v>
+        <v>14000069</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>43780</v>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Data_inserimento_entry_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Data_inserimento_entry_of.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,7 +1008,7 @@
         <v>13000032</v>
       </c>
       <c r="C34" t="n">
-        <v>14000052</v>
+        <v>14000047</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>43412</v>
@@ -1049,11 +1049,11 @@
         <v>14000034</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43844</v>
+        <v>43656</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00001</t>
         </is>
       </c>
     </row>
@@ -1062,17 +1062,17 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13000035</v>
+        <v>13000034</v>
       </c>
       <c r="C37" t="n">
-        <v>14000034</v>
+        <v>14000035</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43804</v>
+        <v>43656</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00002</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13000036</v>
+        <v>13000034</v>
       </c>
       <c r="C38" t="n">
-        <v>14000034</v>
+        <v>14000036</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43774</v>
+        <v>43656</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00003</t>
         </is>
       </c>
     </row>
@@ -1100,17 +1100,17 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13000038</v>
+        <v>13000034</v>
       </c>
       <c r="C39" t="n">
-        <v>14000034</v>
+        <v>14000038</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43845</v>
+        <v>43656</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00004</t>
         </is>
       </c>
     </row>
@@ -1125,11 +1125,11 @@
         <v>14000039</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ITCH00001</t>
+          <t>ITCH00005</t>
         </is>
       </c>
     </row>
@@ -1144,11 +1144,11 @@
         <v>14000040</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ITCH00002</t>
+          <t>ITCH00006</t>
         </is>
       </c>
     </row>
@@ -1157,17 +1157,17 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13000039</v>
+        <v>13000040</v>
       </c>
       <c r="C42" t="n">
-        <v>14000041</v>
+        <v>14000052</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43656</v>
+        <v>43767</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ITCH00003</t>
+          <t>ITCH00016</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13000039</v>
+        <v>13000040</v>
       </c>
       <c r="C43" t="n">
-        <v>14000043</v>
+        <v>14000053</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43656</v>
+        <v>43767</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ITCH00004</t>
+          <t>ITCH00017</t>
         </is>
       </c>
     </row>
@@ -1198,14 +1198,14 @@
         <v>13000040</v>
       </c>
       <c r="C44" t="n">
-        <v>14000057</v>
+        <v>14000054</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>ITCH00018</t>
         </is>
       </c>
     </row>
@@ -1217,14 +1217,14 @@
         <v>13000040</v>
       </c>
       <c r="C45" t="n">
-        <v>14000058</v>
+        <v>14000055</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>ITCH00019</t>
         </is>
       </c>
     </row>
@@ -1236,14 +1236,14 @@
         <v>13000040</v>
       </c>
       <c r="C46" t="n">
-        <v>14000059</v>
+        <v>14000056</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>ITCH00020</t>
         </is>
       </c>
     </row>
@@ -1255,14 +1255,14 @@
         <v>13000040</v>
       </c>
       <c r="C47" t="n">
-        <v>14000060</v>
+        <v>14000058</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>ITCH00022</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
         <v>13000040</v>
       </c>
       <c r="C48" t="n">
-        <v>14000061</v>
+        <v>14000059</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>ITCH00023</t>
         </is>
       </c>
     </row>
@@ -1293,14 +1293,14 @@
         <v>13000040</v>
       </c>
       <c r="C49" t="n">
-        <v>14000063</v>
+        <v>14000060</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>ITCH00024</t>
         </is>
       </c>
     </row>
@@ -1312,14 +1312,14 @@
         <v>13000040</v>
       </c>
       <c r="C50" t="n">
-        <v>14000064</v>
+        <v>14000066</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>ITCH00028</t>
         </is>
       </c>
     </row>
@@ -1328,17 +1328,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13000040</v>
+        <v>13000041</v>
       </c>
       <c r="C51" t="n">
-        <v>14000065</v>
+        <v>14000041</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43767</v>
+        <v>43731</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>ITCH00007</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13000040</v>
+        <v>13000042</v>
       </c>
       <c r="C52" t="n">
-        <v>14000071</v>
+        <v>14000042</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>ITCH00009</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13000044</v>
+        <v>13000042</v>
       </c>
       <c r="C53" t="n">
         <v>14000044</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>43657</v>
+        <v>43766</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>ITCH00010</t>
         </is>
       </c>
     </row>
@@ -1385,17 +1385,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13000044</v>
+        <v>13000042</v>
       </c>
       <c r="C54" t="n">
-        <v>14000045</v>
+        <v>14000046</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>43657</v>
+        <v>43766</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>ITCH00011</t>
         </is>
       </c>
     </row>
@@ -1404,17 +1404,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13000046</v>
+        <v>13000042</v>
       </c>
       <c r="C55" t="n">
-        <v>14000046</v>
+        <v>14000049</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43731</v>
+        <v>43766</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>ITCH00013</t>
         </is>
       </c>
     </row>
@@ -1423,17 +1423,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13000047</v>
+        <v>13000042</v>
       </c>
       <c r="C56" t="n">
-        <v>14000047</v>
+        <v>14000050</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>43766</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>ITCH00014</t>
         </is>
       </c>
     </row>
@@ -1442,17 +1442,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13000047</v>
+        <v>13000042</v>
       </c>
       <c r="C57" t="n">
-        <v>14000049</v>
+        <v>14000051</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>43766</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>ITCH00015</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13000047</v>
+        <v>13000042</v>
       </c>
       <c r="C58" t="n">
-        <v>14000051</v>
+        <v>14000057</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>43766</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>ITCH00021</t>
         </is>
       </c>
     </row>
@@ -1480,17 +1480,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13000047</v>
+        <v>13000042</v>
       </c>
       <c r="C59" t="n">
-        <v>14000054</v>
+        <v>14000069</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>43766</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>ITCH00030</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1499,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13000047</v>
+        <v>13000061</v>
       </c>
       <c r="C60" t="n">
-        <v>14000055</v>
+        <v>14000061</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43766</v>
+        <v>43815</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>ITCH00025</t>
         </is>
       </c>
     </row>
@@ -1518,17 +1518,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13000047</v>
+        <v>13000063</v>
       </c>
       <c r="C61" t="n">
-        <v>14000056</v>
+        <v>14000063</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43766</v>
+        <v>43817</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>ITCH00026</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1537,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13000047</v>
+        <v>13000063</v>
       </c>
       <c r="C62" t="n">
-        <v>14000062</v>
+        <v>14000068</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43766</v>
+        <v>43817</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>ITCH00029</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13000047</v>
+        <v>13000063</v>
       </c>
       <c r="C63" t="n">
-        <v>14000074</v>
+        <v>14000070</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>43766</v>
+        <v>43817</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ITCH00030</t>
+          <t>ITCH00031</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1575,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13000066</v>
+        <v>13000064</v>
       </c>
       <c r="C64" t="n">
-        <v>14000066</v>
+        <v>14000064</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>43815</v>
+        <v>43780</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ITCH00025</t>
+          <t>ITCH00027</t>
         </is>
       </c>
     </row>
@@ -1594,17 +1594,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13000068</v>
+        <v>13000071</v>
       </c>
       <c r="C65" t="n">
-        <v>14000068</v>
+        <v>14000071</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>43817</v>
+        <v>43774</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ITCH00026</t>
+          <t>ITCH00032</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1613,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13000068</v>
+        <v>13000072</v>
       </c>
       <c r="C66" t="n">
-        <v>14000073</v>
+        <v>14000072</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>43817</v>
+        <v>43804</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ITCH00029</t>
+          <t>ITCH00033</t>
         </is>
       </c>
     </row>
@@ -1632,17 +1632,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13000068</v>
+        <v>13000073</v>
       </c>
       <c r="C67" t="n">
-        <v>14000075</v>
+        <v>14000073</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>43817</v>
+        <v>43844</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ITCH00031</t>
+          <t>ITCH00034</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13000069</v>
+        <v>13000073</v>
       </c>
       <c r="C68" t="n">
-        <v>14000069</v>
+        <v>14000074</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>43780</v>
+        <v>43844</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ITCH00027</t>
+          <t>ITCH00035</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>13000075</v>
+      </c>
+      <c r="C69" t="n">
+        <v>14000075</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>43845</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ITCH00036</t>
         </is>
       </c>
     </row>
